--- a/biology/Médecine/Pierre_Magistretti/Pierre_Magistretti.xlsx
+++ b/biology/Médecine/Pierre_Magistretti/Pierre_Magistretti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre J. Magistretti, né en 1952 à Milan, est un médecin et neuroscientifique italo-suisse. Il est doyen de la faculté de Biologie et Sciences de l'Environnement à l'université Université des sciences et technologies du roi Abdallah[Quand ?] à Thuwal-Djeddah, en Arabie saoudite. Il est également professeur au Brain Mind Institute de l'EPFL.
 </t>
@@ -511,11 +523,13 @@
           <t>Contributions scientifiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son groupe de recherche a notamment découvert certains des mécanismes cellulaires et moléculaires qui sous-tendent le couplage entre l'activité neuronale et la consommation d'énergie par le cerveau[1],[2].
-Le travail de Pierre Magistretti et de son équipe a démontré que les astrocytes peuvent détecter l'activité synaptique et le coupler à l'importation de glucose quand et où cela est nécessaire dans le registre étroit de l'activation neuronale[3].
-En 2014, son groupe a révélé un rôle clé du lactate, dérivé de la molécule glycogène, produit par les astrocytes dans le cerveau, dans la potentialisation à long terme et la consolidation de la mémoire[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son groupe de recherche a notamment découvert certains des mécanismes cellulaires et moléculaires qui sous-tendent le couplage entre l'activité neuronale et la consommation d'énergie par le cerveau,.
+Le travail de Pierre Magistretti et de son équipe a démontré que les astrocytes peuvent détecter l'activité synaptique et le coupler à l'importation de glucose quand et où cela est nécessaire dans le registre étroit de l'activation neuronale.
+En 2014, son groupe a révélé un rôle clé du lactate, dérivé de la molécule glycogène, produit par les astrocytes dans le cerveau, dans la potentialisation à long terme et la consolidation de la mémoire.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Récompenses et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>2016 : Co-lauréat avec les Professeurs David Attwell (Londres) et Marcus Raichle (St. Louis, MO-USA) du prix International de la Fondation Ipsen pour leurs travaux dans le domaine de la neuroénergétique.
 2014 : Membre honoraire de l'Association chinoise de sciences physiologiques.
@@ -584,7 +600,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a coécrit avec François Ansermet À Chacun son cerveau (2004), Neurosciences et psychanalyse (2010) et Les Énigmes du plaisir (2010) aux  éditions Odile Jacob.
 </t>
